--- a/months/dec22test/dec22.xlsx
+++ b/months/dec22test/dec22.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\учимся жить\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="таблица на холод" sheetId="1" r:id="rId1"/>
-    <sheet name="vedomost" sheetId="2" r:id="rId2"/>
-    <sheet name="fine-encourage" sheetId="3" r:id="rId3"/>
-    <sheet name="price" sheetId="4" r:id="rId4"/>
-    <sheet name="FOR_TEST" sheetId="5" r:id="rId5"/>
+    <sheet name="таблица на холод" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="vedomost" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="fine-encourage" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="price" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FOR_TEST" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,78 +27,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="179">
-  <si>
-    <t>дата</t>
-  </si>
-  <si>
-    <t>МОД</t>
-  </si>
-  <si>
-    <t>боль</t>
-  </si>
-  <si>
-    <t>деж</t>
-  </si>
-  <si>
-    <t>А:GYM</t>
-  </si>
-  <si>
-    <t>А:сон</t>
-  </si>
-  <si>
-    <t>З:улица</t>
-  </si>
-  <si>
-    <t>З:сон</t>
-  </si>
-  <si>
-    <t>З:зубы</t>
-  </si>
-  <si>
-    <t>З:теле</t>
-  </si>
-  <si>
-    <t>О:сос</t>
-  </si>
-  <si>
-    <t>О:кухня</t>
-  </si>
-  <si>
-    <t>Е:гигена</t>
-  </si>
-  <si>
-    <t>Е:py/vim</t>
-  </si>
-  <si>
-    <t>E:план</t>
-  </si>
-  <si>
-    <t>E:сон</t>
-  </si>
-  <si>
-    <t>Е:еда</t>
-  </si>
-  <si>
-    <t>Л:зубы</t>
-  </si>
-  <si>
-    <t>Л:сон</t>
-  </si>
-  <si>
-    <t>Л:еда</t>
-  </si>
-  <si>
-    <t>долгий ящик</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>longbox</t>
-  </si>
-  <si>
-    <t>sub</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="179">
+  <si>
+    <t xml:space="preserve">дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">боль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">деж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А:GYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А:сон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З:улица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З:сон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З:зубы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З:теле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О:сос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О:кухня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е:гигена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е:py/vim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:сон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е:еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л:зубы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л:сон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л:еда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">долгий ящик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub</t>
   </si>
   <si>
     <t xml:space="preserve">        |</t>
@@ -111,474 +107,478 @@
     <t xml:space="preserve">     |</t>
   </si>
   <si>
-    <t>Л:кружок</t>
-  </si>
-  <si>
-    <t>MOD</t>
-  </si>
-  <si>
-    <t>L:DANCE</t>
-  </si>
-  <si>
-    <t>vos</t>
-  </si>
-  <si>
-    <t>A:вакцина</t>
-  </si>
-  <si>
-    <t>WEAK</t>
-  </si>
-  <si>
-    <t>A:VAC</t>
-  </si>
-  <si>
-    <t>pn</t>
-  </si>
-  <si>
-    <t>DUTY</t>
-  </si>
-  <si>
-    <t>A:GO</t>
-  </si>
-  <si>
-    <t>vt</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>A:GYM</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>A:SLEEPTIME</t>
-  </si>
-  <si>
-    <t>cht</t>
-  </si>
-  <si>
-    <t>Z:STROLL</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>Z:SLEEPTIME</t>
-  </si>
-  <si>
-    <t>Z:TEETH</t>
-  </si>
-  <si>
-    <t>Z:TELE</t>
-  </si>
-  <si>
-    <t>F:VACUUM</t>
-  </si>
-  <si>
-    <t>F:KITCHEN</t>
-  </si>
-  <si>
-    <t>E:HYGIENE</t>
-  </si>
-  <si>
-    <t>E:PY</t>
-  </si>
-  <si>
-    <t>E:VIM</t>
-  </si>
-  <si>
-    <t>Поощрения</t>
-  </si>
-  <si>
-    <t>E:PLAN</t>
-  </si>
-  <si>
-    <t>ENCOURAGE</t>
-  </si>
-  <si>
-    <t>E:SLEEPTIME</t>
-  </si>
-  <si>
-    <t>E:DIET</t>
-  </si>
-  <si>
-    <t>штрафы</t>
-  </si>
-  <si>
-    <t>E:MEALS</t>
-  </si>
-  <si>
-    <t>НОСКИ</t>
-  </si>
-  <si>
-    <t>L:TEETH</t>
-  </si>
-  <si>
-    <t>SOCKS</t>
-  </si>
-  <si>
-    <t>ЗАБЫВАШКА</t>
-  </si>
-  <si>
-    <t>L:SLEEPTIME</t>
-  </si>
-  <si>
-    <t>FORGET</t>
-  </si>
-  <si>
-    <t>РУГАНЬ</t>
-  </si>
-  <si>
-    <t>L:DIET</t>
-  </si>
-  <si>
-    <t>BADWORDS</t>
-  </si>
-  <si>
-    <t>РАСПРАВА</t>
-  </si>
-  <si>
-    <t>L:MEALS</t>
-  </si>
-  <si>
-    <t>MASSACRE</t>
-  </si>
-  <si>
-    <t>ЧАШКА</t>
-  </si>
-  <si>
-    <t>L:ALARM</t>
-  </si>
-  <si>
-    <t>CUP</t>
-  </si>
-  <si>
-    <t>ВОЛОСЫ</t>
-  </si>
-  <si>
-    <t>HAIR</t>
-  </si>
-  <si>
-    <t>СОЖАЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>REGRET</t>
-  </si>
-  <si>
-    <t>В МАСЛЕ</t>
-  </si>
-  <si>
-    <t>COVRD IN OIL</t>
-  </si>
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>Egr</t>
-  </si>
-  <si>
-    <t>Lera</t>
-  </si>
-  <si>
-    <t>duty_24</t>
-  </si>
-  <si>
-    <t>duty_False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>duty_8</t>
-  </si>
-  <si>
-    <t>WEAK1</t>
-  </si>
-  <si>
-    <t>WEAK2</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>KGD</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>50*</t>
-  </si>
-  <si>
-    <t>25*</t>
-  </si>
-  <si>
-    <t>40*</t>
-  </si>
-  <si>
-    <t>20*</t>
-  </si>
-  <si>
-    <t>10*</t>
-  </si>
-  <si>
-    <t>30*</t>
-  </si>
-  <si>
-    <t>ANSWER</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>21,00</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>23,00</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>&lt;.22: 3*, &lt;.23: 2*, &gt;=.23: 0</t>
-  </si>
-  <si>
-    <t>&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: -1*</t>
-  </si>
-  <si>
-    <t>&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: 0</t>
-  </si>
-  <si>
-    <t>&lt;.23: 1*, &gt;=.23: 0</t>
-  </si>
-  <si>
-    <t>&lt;.23: 2*, &lt;.0: 1*, &gt;=.0: 0</t>
-  </si>
-  <si>
-    <t>&lt;.23: 2*, &gt;=.23: 0, &gt;.0: -1*</t>
-  </si>
-  <si>
-    <t>E:Banks</t>
-  </si>
-  <si>
-    <t>L:clothes</t>
-  </si>
-  <si>
-    <t>E:comp clean</t>
-  </si>
-  <si>
-    <t>E:telephone clean</t>
-  </si>
-  <si>
-    <t>E:avto</t>
-  </si>
-  <si>
-    <t>Е: банки</t>
-  </si>
-  <si>
-    <t>А: шаги</t>
-  </si>
-  <si>
-    <t>Л: пальто</t>
-  </si>
-  <si>
-    <t>Е: чистка компа</t>
-  </si>
-  <si>
-    <t>Е: чиста телефона</t>
-  </si>
-  <si>
-    <t>Е: авто</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>EGR</t>
-  </si>
-  <si>
-    <t>LERA</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>0,30</t>
-  </si>
-  <si>
-    <t>22,46</t>
-  </si>
-  <si>
-    <t>22,26</t>
-  </si>
-  <si>
-    <t>23,20</t>
-  </si>
-  <si>
-    <t>22,45</t>
-  </si>
-  <si>
-    <t>22,42</t>
-  </si>
-  <si>
-    <t>22,30</t>
-  </si>
-  <si>
-    <t>23,30</t>
-  </si>
-  <si>
-    <t>00,00</t>
-  </si>
-  <si>
-    <t>22,27</t>
-  </si>
-  <si>
-    <t>22,24</t>
-  </si>
-  <si>
-    <t>22,10</t>
-  </si>
-  <si>
-    <t>22,33</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>22,23</t>
-  </si>
-  <si>
-    <t>23,15</t>
-  </si>
-  <si>
-    <t>23,40</t>
-  </si>
-  <si>
-    <t>22,20</t>
-  </si>
-  <si>
-    <t>23,35</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>21,48</t>
-  </si>
-  <si>
-    <t>22,40</t>
-  </si>
-  <si>
-    <t>22,18</t>
-  </si>
-  <si>
-    <t>21,10</t>
-  </si>
-  <si>
-    <t>22,17</t>
-  </si>
-  <si>
-    <t>21,50</t>
-  </si>
-  <si>
-    <t>23,45</t>
-  </si>
-  <si>
-    <t>22,16</t>
-  </si>
-  <si>
-    <t>22,50</t>
-  </si>
-  <si>
-    <t>21,38</t>
-  </si>
-  <si>
-    <t>22,15</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>22,44</t>
-  </si>
-  <si>
-    <t>23,50</t>
-  </si>
-  <si>
-    <t>0,40</t>
-  </si>
-  <si>
-    <t>0,10</t>
-  </si>
-  <si>
-    <t>0,50</t>
-  </si>
-  <si>
-    <t>0,13</t>
-  </si>
-  <si>
-    <t>23,10</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>0,20</t>
-  </si>
-  <si>
-    <t>00,30</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>00,15</t>
+    <t xml:space="preserve">Л:кружок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:DANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:вакцина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А: шаги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е: банки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:GYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:Banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л: пальто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:SLEEPTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:clothes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е: чистка компа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:STROLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:comp clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е: чиста телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:SLEEPTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:telephone clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е: авто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:TEETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:avto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:TELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F:VACUUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F:KITCHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:HYGIENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:VIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поощрения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCOURAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:SLEEPTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:DIET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">штрафы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E:MEALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОСКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:TEETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАБЫВАШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:SLEEPTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУГАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:DIET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADWORDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАСПРАВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:MEALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧАШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L:ALARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЛОСЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЖАЛЕНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGRET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В МАСЛЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVRD IN OIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.22: 3*, &lt;.23: 2*, &gt;=.23: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.23: 1*, &gt;=.23: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.23: 2*, &lt;.0: 1*, &gt;=.0: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: -1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.23: 2*, &gt;=.23: 0, &gt;.0: -1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="d/m;@"/>
+    <numFmt numFmtId="169" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -588,13 +588,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -602,7 +609,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -655,174 +670,302 @@
     </fill>
   </fills>
   <borders count="9">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -833,8 +976,14 @@
     </dxf>
     <dxf>
       <font>
+        <b val="1"/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
-        <i/>
+        <i val="1"/>
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -846,14 +995,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -862,20 +1003,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -927,351 +1055,77 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="списки"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
-  <a:themeElements>
-    <a:clrScheme name="Стандартная">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Стандартная">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="11.140625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="2" style="2" customWidth="1"/>
-    <col min="29" max="29" width="3.85546875" style="2" customWidth="1"/>
-    <col min="30" max="1024" width="9.140625" style="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="4.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="3.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="30" style="2" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1337,37 +1191,37 @@
         <v>20</v>
       </c>
       <c r="X1" s="1" t="str">
-        <f>A1</f>
+        <f aca="false">A1</f>
         <v>дата</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="Z1" s="16" t="str">
-        <f t="shared" ref="Z1:Z27" si="0">V1</f>
+        <f aca="false">V1</f>
         <v>долгий ящик</v>
       </c>
       <c r="AA1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="2" t="n">
         <v>6</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
         <v>44896</v>
       </c>
       <c r="B2" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A2,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A2,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="8">
+      <c r="E2" s="8" t="n">
         <v>24</v>
       </c>
       <c r="F2" s="8"/>
@@ -1397,20 +1251,20 @@
       </c>
       <c r="W2" s="16"/>
       <c r="X2" s="2" t="str">
-        <f>C1</f>
+        <f aca="false">C1</f>
         <v>МОД</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="Z2" s="16" t="str">
-        <f>V2</f>
+        <f aca="false">V2</f>
         <v>Л:кружок</v>
       </c>
       <c r="AA2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="2" t="n">
         <v>7</v>
       </c>
       <c r="AC2" s="2" t="s">
@@ -1418,12 +1272,12 @@
       </c>
       <c r="AD2" s="16"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
         <v>44897</v>
       </c>
       <c r="B3" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A3,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A3,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C3" s="18"/>
@@ -1456,20 +1310,20 @@
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="2" t="str">
-        <f t="shared" ref="X3:X14" si="1">IFERROR(INDEX($A$1:$U$1,MATCH(X2,$A$1:$U$1,0)+1),"")</f>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X2,$A$1:$U$1,0)+1),"")</f>
         <v>боль</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Z3" s="16" t="str">
-        <f t="shared" ref="Z3:Z15" si="2">V3</f>
+        <f aca="false">V3</f>
         <v>A:вакцина</v>
       </c>
       <c r="AA3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="2" t="s">
@@ -1477,12 +1331,12 @@
       </c>
       <c r="AD3" s="16"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
         <v>44898</v>
       </c>
       <c r="B4" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A4,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A4,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C4" s="18"/>
@@ -1511,43 +1365,43 @@
         <v>25</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="W4" s="16"/>
       <c r="X4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X3,$A$1:$U$1,0)+1),"")</f>
         <v>деж</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f aca="false">V4</f>
         <v>А: шаги</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD4" s="16"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
         <v>44899</v>
       </c>
       <c r="B5" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A5,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A5,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="20"/>
@@ -1572,37 +1426,37 @@
         <v>25</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X4,$A$1:$U$1,0)+1),"")</f>
         <v>А:GYM</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f aca="false">V5</f>
         <v>Е: банки</v>
       </c>
       <c r="AA5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB5" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
         <v>44900</v>
       </c>
       <c r="B6" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A6,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A6,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C6" s="18"/>
@@ -1631,37 +1485,37 @@
         <v>25</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X5,$A$1:$U$1,0)+1),"")</f>
         <v>А:сон</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z6" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f aca="false">V6</f>
         <v>Л: пальто</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
         <v>44901</v>
       </c>
       <c r="B7" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A7,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A7,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="18"/>
@@ -1690,43 +1544,43 @@
         <v>25</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X6,$A$1:$U$1,0)+1),"")</f>
         <v>З:улица</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f aca="false">V7</f>
         <v>Е: чистка компа</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB7" s="2">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AD7" s="16"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
         <v>44902</v>
       </c>
       <c r="B8" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A8,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A8,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="20"/>
@@ -1751,31 +1605,31 @@
         <v>25</v>
       </c>
       <c r="V8" s="25" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X7,$A$1:$U$1,0)+1),"")</f>
         <v>З:сон</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f aca="false">V8</f>
         <v>Е: чиста телефона</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="AB8" s="26"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
         <v>44903</v>
       </c>
       <c r="B9" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A9,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A9,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C9" s="18"/>
@@ -1804,30 +1658,30 @@
         <v>25</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="W9" s="16"/>
       <c r="X9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X8,$A$1:$U$1,0)+1),"")</f>
         <v>З:зубы</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f aca="false">V9</f>
         <v>Е: авто</v>
       </c>
       <c r="AA9" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
         <v>44904</v>
       </c>
       <c r="B10" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A10,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A10,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C10" s="18"/>
@@ -1857,30 +1711,30 @@
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X9,$A$1:$U$1,0)+1),"")</f>
         <v>З:теле</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z10" s="16">
-        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="Z10" s="16" t="n">
+        <f aca="false">V10</f>
         <v>0</v>
       </c>
       <c r="AA10" s="16"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
         <v>44905</v>
       </c>
       <c r="B11" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A11,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A11,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="20"/>
@@ -1906,24 +1760,24 @@
       </c>
       <c r="W11" s="16"/>
       <c r="X11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X10,$A$1:$U$1,0)+1),"")</f>
         <v>О:сос</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z11" s="16">
-        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="Z11" s="16" t="n">
+        <f aca="false">V11</f>
         <v>0</v>
       </c>
       <c r="AA11" s="16"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
         <v>44906</v>
       </c>
       <c r="B12" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A12,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A12,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C12" s="18"/>
@@ -1953,24 +1807,24 @@
       </c>
       <c r="W12" s="16"/>
       <c r="X12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X11,$A$1:$U$1,0)+1),"")</f>
         <v>О:кухня</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z12" s="16">
-        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="Z12" s="16" t="n">
+        <f aca="false">V12</f>
         <v>0</v>
       </c>
       <c r="AA12" s="16"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
         <v>44907</v>
       </c>
       <c r="B13" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A13,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A13,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C13" s="18"/>
@@ -1999,24 +1853,24 @@
         <v>25</v>
       </c>
       <c r="X13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X12,$A$1:$U$1,0)+1),"")</f>
         <v>Е:гигена</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z13" s="16">
-        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="Z13" s="16" t="n">
+        <f aca="false">V13</f>
         <v>0</v>
       </c>
       <c r="AA13" s="16"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
         <v>44908</v>
       </c>
       <c r="B14" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A14,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A14,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C14" s="18"/>
@@ -2045,30 +1899,30 @@
         <v>25</v>
       </c>
       <c r="X14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X13,$A$1:$U$1,0)+1),"")</f>
         <v>Е:py/vim</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z14" s="16">
-        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="Z14" s="16" t="n">
+        <f aca="false">V14</f>
         <v>0</v>
       </c>
       <c r="AA14" s="16"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
         <v>44909</v>
       </c>
       <c r="B15" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A15,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A15,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="20"/>
@@ -2093,20 +1947,20 @@
         <v>25</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z15" s="16">
-        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="Z15" s="16" t="n">
+        <f aca="false">V15</f>
         <v>0</v>
       </c>
       <c r="AA15" s="16"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
         <v>44910</v>
       </c>
       <c r="B16" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A16,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A16,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C16" s="18"/>
@@ -2135,29 +1989,29 @@
         <v>25</v>
       </c>
       <c r="V16" s="27" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X16" s="2" t="str">
-        <f>IFERROR(INDEX($A$1:$U$1,MATCH(X14,$A$1:$U$1,0)+1),"")</f>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X14,$A$1:$U$1,0)+1),"")</f>
         <v>E:план</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Z16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V16</f>
         <v>Поощрения</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
         <v>44911</v>
       </c>
       <c r="B17" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A17,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A17,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C17" s="18"/>
@@ -2186,29 +2040,29 @@
         <v>25</v>
       </c>
       <c r="X17" s="2" t="str">
-        <f>IFERROR(INDEX($A$1:$U$1,MATCH(X16,$A$1:$U$1,0)+1),"")</f>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X16,$A$1:$U$1,0)+1),"")</f>
         <v>E:сон</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+        <v>66</v>
+      </c>
+      <c r="Z17" s="16" t="n">
+        <f aca="false">V17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
         <v>44912</v>
       </c>
       <c r="B18" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A18,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A18,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="20"/>
@@ -2233,23 +2087,23 @@
         <v>25</v>
       </c>
       <c r="X18" s="2" t="str">
-        <f>IFERROR(INDEX($A$1:$U$1,MATCH(X17,$A$1:$U$1,0)+1),"")</f>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X17,$A$1:$U$1,0)+1),"")</f>
         <v>Е:еда</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+        <v>67</v>
+      </c>
+      <c r="Z18" s="16" t="n">
+        <f aca="false">V18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
         <v>44913</v>
       </c>
       <c r="B19" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A19,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A19,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C19" s="18"/>
@@ -2278,30 +2132,30 @@
         <v>25</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="W19" s="16"/>
       <c r="Y19" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z19" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V19</f>
         <v>штрафы</v>
       </c>
       <c r="AA19" s="16"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
         <v>44914</v>
       </c>
       <c r="B20" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A20,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A20,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="20"/>
@@ -2326,29 +2180,29 @@
         <v>25</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X20" s="2" t="str">
-        <f>IFERROR(INDEX($A$1:$U$1,MATCH(X18,$A$1:$U$1,0)+1),"")</f>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X18,$A$1:$U$1,0)+1),"")</f>
         <v>Л:зубы</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Z20" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V20</f>
         <v>НОСКИ</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
         <v>44915</v>
       </c>
       <c r="B21" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A21,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A21,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C21" s="18"/>
@@ -2377,29 +2231,29 @@
         <v>25</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="X21" s="2" t="str">
-        <f t="shared" ref="X21:X29" si="3">IFERROR(INDEX($A$1:$U$1,MATCH(X20,$A$1:$U$1,0)+1),"")</f>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X20,$A$1:$U$1,0)+1),"")</f>
         <v>Л:сон</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Z21" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V21</f>
         <v>ЗАБЫВАШКА</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="n">
         <v>44916</v>
       </c>
       <c r="B22" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A22,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A22,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C22" s="18"/>
@@ -2428,29 +2282,29 @@
         <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="X22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X21,$A$1:$U$1,0)+1),"")</f>
         <v>Л:еда</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Z22" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V22</f>
         <v>РУГАНЬ</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="n">
         <v>44917</v>
       </c>
       <c r="B23" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A23,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A23,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C23" s="18"/>
@@ -2479,35 +2333,35 @@
         <v>25</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="X23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X22,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V23</f>
         <v>РАСПРАВА</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="n">
         <v>44918</v>
       </c>
       <c r="B24" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A24,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A24,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="20"/>
@@ -2532,29 +2386,29 @@
         <v>25</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="X24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X23,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Z24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V24</f>
         <v>ЧАШКА</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="n">
         <v>44919</v>
       </c>
       <c r="B25" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A25,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A25,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C25" s="18"/>
@@ -2583,27 +2437,27 @@
         <v>25</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X24,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
       <c r="Z25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V25</f>
         <v>ВОЛОСЫ</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="n">
         <v>44920</v>
       </c>
       <c r="B26" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A26,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A26,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C26" s="18"/>
@@ -2632,33 +2486,33 @@
         <v>25</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X25,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
       <c r="Z26" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V26</f>
         <v>СОЖАЛЕНИЕ</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="n">
         <v>44921</v>
       </c>
       <c r="B27" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A27,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A27,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="20"/>
@@ -2683,27 +2537,27 @@
         <v>25</v>
       </c>
       <c r="V27" s="29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X26,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
       <c r="Z27" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">V27</f>
         <v>В МАСЛЕ</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="n">
         <v>44922</v>
       </c>
       <c r="B28" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A28,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A28,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C28" s="18"/>
@@ -2733,16 +2587,16 @@
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X27,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="n">
         <v>44923</v>
       </c>
       <c r="B29" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A29,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A29,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C29" s="18"/>
@@ -2772,16 +2626,16 @@
       </c>
       <c r="W29" s="16"/>
       <c r="X29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f aca="false">IFERROR(INDEX($A$1:$U$1,MATCH(X28,$A$1:$U$1,0)+1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="n">
         <v>44924</v>
       </c>
       <c r="B30" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A30,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A30,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C30" s="18"/>
@@ -2811,18 +2665,18 @@
       </c>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="n">
         <v>44925</v>
       </c>
       <c r="B31" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A31,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A31,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
       <c r="E31" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="20"/>
@@ -2847,12 +2701,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="n">
         <v>44926</v>
       </c>
       <c r="B32" s="18" t="e">
-        <f>VLOOKUP(WEEKDAY(A32,2),[1]списки!$G$3:$H$9,2)</f>
+        <f aca="false">VLOOKUP(WEEKDAY(A32,2),[1]списки!$G$3:$H$9,2)</f>
         <v>#N/A</v>
       </c>
       <c r="C32" s="18"/>
@@ -2883,1362 +2737,1370 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z33:AMJ1048576 Z28:AB32 AC8:AMJ32 AE1:AMJ7 AB1:AC7 A1:V2 V7:V8 V33:W1048576 W20:W24 W31:W32 W13:W18 AA16:AA18 AB8:AB27 AA20:AA27 Y21:Y23 X1:Y3 Y4:Y6 Y25:Y1048576 Y8:Y19 X4:X1048576 A2:U1048576 V3 V5">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="ТЕЩА">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ТЕЩА" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ТЕЩА",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ДОМ">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ДОМ" dxfId="1">
       <formula>NOT(ISERROR(SEARCH("ДОМ",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="САД">
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="САД" dxfId="2">
       <formula>NOT(ISERROR(SEARCH("САД",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V27 V16:V19">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="ТЕЩА">
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ТЕЩА" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("ТЕЩА",V16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="дома">
+    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="дома" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("дома",V16)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="16" width="6.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="str">
-        <f>INDEX('таблица на холод'!$Y$1:$Y$23,1)</f>
+        <f aca="false">INDEX('таблица на холод'!$Y$1:$Y$23,1)</f>
         <v>DATE</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C1" s="31" t="str">
-        <f>INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(A1,'таблица на холод'!$Y$1:$Y$25,0)+1)</f>
+        <f aca="false">INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(A1,'таблица на холод'!$Y$1:$Y$25,0)+1)</f>
         <v>MOD</v>
       </c>
       <c r="D1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>WEAK</v>
       </c>
       <c r="E1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>DUTY</v>
       </c>
       <c r="F1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>A:GYM</v>
       </c>
       <c r="G1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>A:SLEEPTIME</v>
       </c>
       <c r="H1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:STROLL</v>
       </c>
       <c r="I1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:SLEEPTIME</v>
       </c>
       <c r="J1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:TEETH</v>
       </c>
       <c r="K1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:TELE</v>
       </c>
       <c r="L1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>F:VACUUM</v>
       </c>
       <c r="M1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>F:KITCHEN</v>
       </c>
       <c r="N1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:HYGIENE</v>
       </c>
       <c r="O1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:PY</v>
       </c>
       <c r="P1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:VIM</v>
       </c>
       <c r="Q1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:PLAN</v>
       </c>
       <c r="R1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:SLEEPTIME</v>
       </c>
       <c r="S1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:DIET</v>
       </c>
       <c r="T1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:MEALS</v>
       </c>
       <c r="U1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:TEETH</v>
       </c>
       <c r="V1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:SLEEPTIME</v>
       </c>
       <c r="W1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:DIET</v>
       </c>
       <c r="X1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:MEALS</v>
       </c>
       <c r="Y1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:ALARM</v>
       </c>
-      <c r="Z1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="Z1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AA1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AB1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AC1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AD1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AC1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AC1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AD1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AC1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AC1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <f>INDEX('таблица на холод'!A:A,2)</f>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="n">
+        <f aca="false">INDEX('таблица на холод'!A:A,2)</f>
         <v>44896</v>
       </c>
-      <c r="B2" s="31">
-        <f t="shared" ref="B2:B32" si="0">IFERROR(WEEKDAY(A2,2),"")</f>
+      <c r="B2" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>4</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="31">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A2,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A2,'таблица на холод'!A:A))),"")</f>
+        <v>93</v>
+      </c>
+      <c r="E2" s="31" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A2,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A2,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V2" s="31"/>
       <c r="W2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y2" s="31"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A2,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A2,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A2,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A2,'таблица на холод'!A:A)+1)),"")</f>
         <v>44897</v>
       </c>
-      <c r="B3" s="31">
-        <f t="shared" si="0"/>
+      <c r="B3" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>5</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E3" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A3,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A3,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A3,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A3,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
       <c r="Q3" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S3" s="31"/>
       <c r="T3" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W3" s="31"/>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A3,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A3,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A3,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A3,'таблица на холод'!A:A)+1)),"")</f>
         <v>44898</v>
       </c>
-      <c r="B4" s="31">
-        <f t="shared" si="0"/>
+      <c r="B4" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>6</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E4" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A4,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A4,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A4,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A4,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F4" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>133</v>
-      </c>
       <c r="H4" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
       <c r="Q4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R4" s="31" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V4" s="31"/>
       <c r="W4" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="31"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A4,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A4,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A4,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A4,'таблица на холод'!A:A)+1)),"")</f>
         <v>44899</v>
       </c>
-      <c r="B5" s="31">
-        <f t="shared" si="0"/>
+      <c r="B5" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>7</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E5" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A5,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A5,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A5,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A5,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V5" s="31"/>
       <c r="W5" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y5" s="31"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A5,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A5,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A5,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A5,'таблица на холод'!A:A)+1)),"")</f>
         <v>44900</v>
       </c>
-      <c r="B6" s="31">
-        <f t="shared" si="0"/>
+      <c r="B6" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>1</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="E6" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A6,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A6,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A6,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A6,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S6" s="31"/>
       <c r="T6" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="W6" s="31"/>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A6,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A6,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A6,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A6,'таблица на холод'!A:A)+1)),"")</f>
         <v>44901</v>
       </c>
-      <c r="B7" s="31">
-        <f t="shared" si="0"/>
+      <c r="B7" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="E7" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A7,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A7,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A7,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A7,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="31">
-        <v>21.48</v>
+      <c r="G7" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V7" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W7" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A7,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A7,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A7,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A7,'таблица на холод'!A:A)+1)),"")</f>
         <v>44902</v>
       </c>
-      <c r="B8" s="31">
-        <f t="shared" si="0"/>
+      <c r="B8" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>3</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="E8" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A8,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A8,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A8,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A8,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="W8" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X8" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A8,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A8,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A8,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A8,'таблица на холод'!A:A)+1)),"")</f>
         <v>44903</v>
       </c>
-      <c r="B9" s="31">
-        <f t="shared" si="0"/>
+      <c r="B9" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>4</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="E9" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A9,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A9,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A9,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A9,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="31" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="S9" s="31"/>
       <c r="T9" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V9" s="31" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="W9" s="31"/>
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A9,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A9,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A9,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A9,'таблица на холод'!A:A)+1)),"")</f>
         <v>44904</v>
       </c>
-      <c r="B10" s="31">
-        <f t="shared" si="0"/>
+      <c r="B10" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>5</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>150</v>
-      </c>
       <c r="E10" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A10,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A10,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A10,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A10,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V10" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y10" s="31"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A10,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A10,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A10,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A10,'таблица на холод'!A:A)+1)),"")</f>
         <v>44905</v>
       </c>
-      <c r="B11" s="31">
-        <f t="shared" si="0"/>
+      <c r="B11" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>6</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A11,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A11,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A11,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A11,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R11" s="31" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V11" s="31" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="W11" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X11" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y11" s="31"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A11,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A11,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A11,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A11,'таблица на холод'!A:A)+1)),"")</f>
         <v>44906</v>
       </c>
-      <c r="B12" s="31">
-        <f t="shared" si="0"/>
+      <c r="B12" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>7</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A12,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A12,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A12,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A12,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="31"/>
       <c r="R12" s="31" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="S12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V12" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="W12" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X12" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y12" s="31"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A12,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A12,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A12,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A12,'таблица на холод'!A:A)+1)),"")</f>
         <v>44907</v>
       </c>
-      <c r="B13" s="31">
-        <f t="shared" si="0"/>
+      <c r="B13" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>1</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E13" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A13,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A13,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A13,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A13,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R13" s="31" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="S13" s="31"/>
       <c r="T13" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V13" s="31" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="W13" s="31"/>
       <c r="X13" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="31"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A13,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A13,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A13,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A13,'таблица на холод'!A:A)+1)),"")</f>
         <v>44908</v>
       </c>
-      <c r="B14" s="31">
-        <f t="shared" si="0"/>
+      <c r="B14" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>2</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E14" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A14,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A14,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A14,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A14,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
       <c r="R14" s="31" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="S14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T14" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V14" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W14" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y14" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A14,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A14,'таблица на холод'!A:A)+1)),"")</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A14,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A14,'таблица на холод'!A:A)+1)),"")</f>
         <v>44909</v>
       </c>
-      <c r="B15" s="31">
-        <f t="shared" si="0"/>
+      <c r="B15" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>3</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E15" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A15,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A15,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A15,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A15,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="S15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V15" s="31" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="W15" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="31"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A15,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A15,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A15,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A15,'таблица на холод'!A:A)+1)),"")</f>
         <v>44910</v>
       </c>
-      <c r="B16" s="31">
-        <f t="shared" si="0"/>
+      <c r="B16" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>4</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E16" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A16,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A16,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A16,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A16,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="S16" s="31"/>
       <c r="T16" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A16,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A16,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A16,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A16,'таблица на холод'!A:A)+1)),"")</f>
         <v>44911</v>
       </c>
-      <c r="B17" s="31">
-        <f t="shared" si="0"/>
+      <c r="B17" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>5</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E17" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A17,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A17,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A17,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A17,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="31" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="S17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="U17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V17" s="31"/>
       <c r="W17" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A17,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A17,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A17,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A17,'таблица на холод'!A:A)+1)),"")</f>
         <v>44912</v>
       </c>
-      <c r="B18" s="31">
-        <f t="shared" si="0"/>
+      <c r="B18" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>6</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E18" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A18,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A18,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A18,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A18,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="S18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U18" s="31"/>
       <c r="V18" s="31" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="W18" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y18" s="31"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A18,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A18,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A18,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A18,'таблица на холод'!A:A)+1)),"")</f>
         <v>44913</v>
       </c>
-      <c r="B19" s="31">
-        <f t="shared" si="0"/>
+      <c r="B19" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>7</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A19,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A19,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A19,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A19,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R19" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U19" s="31"/>
       <c r="V19" s="31"/>
       <c r="W19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y19" s="31"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A19,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A19,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A19,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A19,'таблица на холод'!A:A)+1)),"")</f>
         <v>44914</v>
       </c>
-      <c r="B20" s="31">
-        <f t="shared" si="0"/>
+      <c r="B20" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>1</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -4246,40 +4108,40 @@
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A20,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A20,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A20,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A20,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R20" s="31" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="S20" s="31"/>
       <c r="T20" s="31" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
@@ -4287,13 +4149,13 @@
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A20,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A20,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A20,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A20,'таблица на холод'!A:A)+1)),"")</f>
         <v>44915</v>
       </c>
-      <c r="B21" s="31">
-        <f t="shared" si="0"/>
+      <c r="B21" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>2</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -4301,61 +4163,61 @@
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A21,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A21,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A21,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A21,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="31"/>
       <c r="R21" s="31" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="S21" s="31"/>
       <c r="T21" s="31"/>
       <c r="U21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V21" s="31" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="W21" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A21,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A21,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A21,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A21,'таблица на холод'!A:A)+1)),"")</f>
         <v>44916</v>
       </c>
-      <c r="B22" s="31">
-        <f t="shared" si="0"/>
+      <c r="B22" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>3</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -4363,65 +4225,65 @@
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A22,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A22,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A22,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A22,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="31" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R22" s="31" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="S22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T22" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="U22" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V22" s="31" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="W22" s="31"/>
       <c r="X22" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y22" s="31"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A22,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A22,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A22,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A22,'таблица на холод'!A:A)+1)),"")</f>
         <v>44917</v>
       </c>
-      <c r="B23" s="31">
-        <f t="shared" si="0"/>
+      <c r="B23" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>4</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -4429,63 +4291,63 @@
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A23,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A23,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A23,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A23,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="31"/>
       <c r="R23" s="31" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="S23" s="31"/>
       <c r="T23" s="31"/>
       <c r="U23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V23" s="31" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="W23" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X23" s="31"/>
       <c r="Y23" s="31"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A23,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A23,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A23,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A23,'таблица на холод'!A:A)+1)),"")</f>
         <v>44918</v>
       </c>
-      <c r="B24" s="31">
-        <f t="shared" si="0"/>
+      <c r="B24" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>5</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -4493,183 +4355,183 @@
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A24,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A24,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A24,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A24,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R24" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S24" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T24" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U24" s="31"/>
       <c r="V24" s="31" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="W24" s="31"/>
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A24,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A24,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A24,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A24,'таблица на холод'!A:A)+1)),"")</f>
         <v>44919</v>
       </c>
-      <c r="B25" s="31">
-        <f t="shared" si="0"/>
+      <c r="B25" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>6</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A25,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A25,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A25,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A25,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="31"/>
       <c r="R25" s="31" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="S25" s="31"/>
       <c r="T25" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="U25" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V25" s="31" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="W25" s="31"/>
       <c r="X25" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y25" s="31"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A25,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A25,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A25,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A25,'таблица на холод'!A:A)+1)),"")</f>
         <v>44920</v>
       </c>
-      <c r="B26" s="31">
-        <f t="shared" si="0"/>
+      <c r="B26" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>7</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A26,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A26,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A26,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A26,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="M26" s="31"/>
       <c r="N26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="31"/>
       <c r="R26" s="31" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="S26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T26" s="31" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="U26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V26" s="31" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="W26" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X26" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y26" s="31"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A26,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A26,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A26,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A26,'таблица на холод'!A:A)+1)),"")</f>
         <v>44921</v>
       </c>
-      <c r="B27" s="31">
-        <f t="shared" si="0"/>
+      <c r="B27" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>1</v>
       </c>
       <c r="C27" s="31" t="s">
@@ -4677,7 +4539,7 @@
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A27,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A27,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A27,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A27,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F27" s="31"/>
@@ -4688,43 +4550,43 @@
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R27" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T27" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V27" s="31"/>
       <c r="W27" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A27,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A27,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A27,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A27,'таблица на холод'!A:A)+1)),"")</f>
         <v>44922</v>
       </c>
-      <c r="B28" s="31">
-        <f t="shared" si="0"/>
+      <c r="B28" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>2</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -4732,69 +4594,69 @@
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A28,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A28,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A28,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A28,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R28" s="31" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="S28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T28" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="U28" s="31"/>
       <c r="V28" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W28" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X28" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Y28" s="31"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A28,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A28,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A28,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A28,'таблица на холод'!A:A)+1)),"")</f>
         <v>44923</v>
       </c>
-      <c r="B29" s="31">
-        <f t="shared" si="0"/>
+      <c r="B29" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>3</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -4802,63 +4664,63 @@
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A29,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A29,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A29,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A29,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="31"/>
       <c r="R29" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="S29" s="31"/>
       <c r="T29" s="31"/>
       <c r="U29" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V29" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W29" s="31"/>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A29,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A29,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A29,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A29,'таблица на холод'!A:A)+1)),"")</f>
         <v>44924</v>
       </c>
-      <c r="B30" s="31">
-        <f t="shared" si="0"/>
+      <c r="B30" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>4</v>
       </c>
       <c r="C30" s="31" t="s">
@@ -4866,55 +4728,55 @@
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A30,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A30,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A30,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A30,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="31" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
       <c r="R30" s="31" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="S30" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T30" s="31"/>
       <c r="U30" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V30" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="W30" s="31"/>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A30,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A30,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A30,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A30,'таблица на холод'!A:A)+1)),"")</f>
         <v>44925</v>
       </c>
-      <c r="B31" s="31">
-        <f t="shared" si="0"/>
+      <c r="B31" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>5</v>
       </c>
       <c r="C31" s="31" t="s">
@@ -4922,1965 +4784,1994 @@
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A31,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A31,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A31,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A31,'таблица на холод'!A:A))),"")</f>
         <v>24</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R31" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V31" s="31" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="W31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X31" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="Y31" s="31"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <f>IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A31,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A31,'таблица на холод'!A:A)+1)),"")</f>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30" t="n">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!A:A,MATCH(A31,'таблица на холод'!A:A)+1) = 0, "", INDEX('таблица на холод'!A:A,MATCH(A31,'таблица на холод'!A:A)+1)),"")</f>
         <v>44926</v>
       </c>
-      <c r="B32" s="31">
-        <f t="shared" si="0"/>
+      <c r="B32" s="31" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A32,2),"")</f>
         <v>6</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A32,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A32,'таблица на холод'!A:A))),"")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!E:E,MATCH(vedomost!A32,'таблица на холод'!A:A)) = 0, "", INDEX('таблица на холод'!E:E,MATCH(vedomost!A32,'таблица на холод'!A:A))),"")</f>
         <v/>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
       <c r="Q32" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R32" s="31" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="S32" s="31"/>
       <c r="T32" s="31" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="U32" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="V32" s="31" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="W32" s="31"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N33" s="31"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N34" s="31"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="31"/>
-    <col min="6" max="7" width="8.5703125" style="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="5.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="31" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="32" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA1,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA1,"")</f>
         <v>longbox</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>82</v>
+        <v>148</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA2,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA2,"")</f>
         <v>L:DANCE</v>
       </c>
       <c r="B2" s="31" t="str">
-        <f t="shared" ref="B2:B27" si="0">IFERROR(IF(FIND(":",A2)&gt;0,"long_box"),"fine/enc")</f>
+        <f aca="false">IFERROR(IF(FIND(":",A2)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <f>IF(D2="",,C2*D2)</f>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="n">
+        <f aca="false">IF(D2="",,C2*D2)</f>
         <v>100</v>
       </c>
-      <c r="G2" s="42">
-        <f>IF(E2="",,C2*E2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="n">
+        <f aca="false">IF(E2="",,C2*E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA3,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA3,"")</f>
         <v>A:VAC</v>
       </c>
       <c r="B3" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A3)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F3" s="42">
-        <f t="shared" ref="F3:F26" si="1">IF(D3="",,C3*D3)</f>
+      <c r="F3" s="32" t="n">
+        <f aca="false">IF(D3="",,C3*D3)</f>
         <v>50</v>
       </c>
-      <c r="G3" s="42">
-        <f t="shared" ref="G3:G26" si="2">IF(E3="",,C3*E3)</f>
+      <c r="G3" s="32" t="n">
+        <f aca="false">IF(E3="",,C3*E3)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA4,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA4,"")</f>
         <v>A:GO</v>
       </c>
       <c r="B4" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A4)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" s="42">
-        <f t="shared" si="1"/>
+      <c r="F4" s="32" t="n">
+        <f aca="false">IF(D4="",,C4*D4)</f>
         <v>50</v>
       </c>
-      <c r="G4" s="42">
-        <f t="shared" si="2"/>
+      <c r="G4" s="32" t="n">
+        <f aca="false">IF(E4="",,C4*E4)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA5,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA5,"")</f>
         <v>E:Banks</v>
       </c>
       <c r="B5" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A5)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42">
-        <f t="shared" si="1"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="n">
+        <f aca="false">IF(D5="",,C5*D5)</f>
         <v>100</v>
       </c>
-      <c r="G5" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="n">
+        <f aca="false">IF(E5="",,C5*E5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA6,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA6,"")</f>
         <v>L:clothes</v>
       </c>
       <c r="B6" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A6)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="42">
-        <f t="shared" si="2"/>
+      <c r="F6" s="32" t="n">
+        <f aca="false">IF(D6="",,C6*D6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <f aca="false">IF(E6="",,C6*E6)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA7,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA7,"")</f>
         <v>E:comp clean</v>
       </c>
       <c r="B7" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A7)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
-        <f t="shared" si="1"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="n">
+        <f aca="false">IF(D7="",,C7*D7)</f>
         <v>100</v>
       </c>
-      <c r="G7" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="32" t="n">
+        <f aca="false">IF(E7="",,C7*E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA8,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA8,"")</f>
         <v>E:telephone clean</v>
       </c>
       <c r="B8" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A8)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42">
-        <f t="shared" si="1"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="n">
+        <f aca="false">IF(D8="",,C8*D8)</f>
         <v>100</v>
       </c>
-      <c r="G8" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="32" t="n">
+        <f aca="false">IF(E8="",,C8*E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA9,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA9,"")</f>
         <v>E:avto</v>
       </c>
       <c r="B9" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A9)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42">
-        <f t="shared" si="1"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="n">
+        <f aca="false">IF(D9="",,C9*D9)</f>
         <v>100</v>
       </c>
-      <c r="G9" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="32" t="n">
+        <f aca="false">IF(E9="",,C9*E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA10,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA10,"")</f>
         <v/>
       </c>
       <c r="B10" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A10)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="n">
+        <f aca="false">IF(D10="",,C10*D10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="32" t="n">
+        <f aca="false">IF(E10="",,C10*E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA11,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA11,"")</f>
         <v/>
       </c>
       <c r="B11" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A11)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="n">
+        <f aca="false">IF(D11="",,C11*D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="32" t="n">
+        <f aca="false">IF(E11="",,C11*E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA12,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA12,"")</f>
         <v/>
       </c>
       <c r="B12" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A12)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="n">
+        <f aca="false">IF(D12="",,C12*D12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="32" t="n">
+        <f aca="false">IF(E12="",,C12*E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA13,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA13,"")</f>
         <v/>
       </c>
       <c r="B13" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A13)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="n">
+        <f aca="false">IF(D13="",,C13*D13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="32" t="n">
+        <f aca="false">IF(E13="",,C13*E13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA14,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA14,"")</f>
         <v/>
       </c>
       <c r="B14" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A14)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32" t="n">
+        <f aca="false">IF(D14="",,C14*D14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="32" t="n">
+        <f aca="false">IF(E14="",,C14*E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA15,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA15,"")</f>
         <v/>
       </c>
       <c r="B15" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A15)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="n">
+        <f aca="false">IF(D15="",,C15*D15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="32" t="n">
+        <f aca="false">IF(E15="",,C15*E15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA16,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA16,"")</f>
         <v>ENCOURAGE</v>
       </c>
       <c r="B16" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A16)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="42">
-        <f t="shared" si="1"/>
+      <c r="D16" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="32" t="n">
+        <f aca="false">IF(D16="",,C16*D16)</f>
         <v>450</v>
       </c>
-      <c r="G16" s="42">
-        <f t="shared" si="2"/>
+      <c r="G16" s="32" t="n">
+        <f aca="false">IF(E16="",,C16*E16)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA17,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA17,"")</f>
         <v/>
       </c>
       <c r="B17" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A17)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <f aca="false">IF(D17="",,C17*D17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="32" t="n">
+        <f aca="false">IF(E17="",,C17*E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA18,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA18,"")</f>
         <v/>
       </c>
       <c r="B18" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A18)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="n">
+        <f aca="false">IF(D18="",,C18*D18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32" t="n">
+        <f aca="false">IF(E18="",,C18*E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA19,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA19,"")</f>
         <v/>
       </c>
       <c r="B19" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A19)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="n">
+        <f aca="false">IF(D19="",,C19*D19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="32" t="n">
+        <f aca="false">IF(E19="",,C19*E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA20,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA20,"")</f>
         <v>SOCKS</v>
       </c>
       <c r="B20" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A20)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="n">
+        <f aca="false">IF(D20="",,C20*D20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="32" t="n">
+        <f aca="false">IF(E20="",,C20*E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA21,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA21,"")</f>
         <v>FORGET</v>
       </c>
       <c r="B21" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A21)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="n">
+        <f aca="false">IF(D21="",,C21*D21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="32" t="n">
+        <f aca="false">IF(E21="",,C21*E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA22,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA22,"")</f>
         <v>BADWORDS</v>
       </c>
       <c r="B22" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A22)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="32" t="n">
         <v>-50</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="42">
-        <f t="shared" si="1"/>
+      <c r="F22" s="32" t="n">
+        <f aca="false">IF(D22="",,C22*D22)</f>
         <v>-350</v>
       </c>
-      <c r="G22" s="42">
-        <f t="shared" si="2"/>
+      <c r="G22" s="32" t="n">
+        <f aca="false">IF(E22="",,C22*E22)</f>
         <v>-200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA23,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA23,"")</f>
         <v>MASSACRE</v>
       </c>
       <c r="B23" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A23)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="42">
-        <f t="shared" si="1"/>
+      <c r="F23" s="32" t="n">
+        <f aca="false">IF(D23="",,C23*D23)</f>
         <v>-200</v>
       </c>
-      <c r="G23" s="42">
-        <f t="shared" si="2"/>
+      <c r="G23" s="32" t="n">
+        <f aca="false">IF(E23="",,C23*E23)</f>
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA24,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA24,"")</f>
         <v>CUP</v>
       </c>
       <c r="B24" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A24)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42">
-        <f t="shared" si="1"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <f aca="false">IF(D24="",,C24*D24)</f>
         <v>-200</v>
       </c>
-      <c r="G24" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="32" t="n">
+        <f aca="false">IF(E24="",,C24*E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA25,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA25,"")</f>
         <v>HAIR</v>
       </c>
       <c r="B25" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A25)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <f aca="false">IF(D25="",,C25*D25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="32" t="n">
+        <f aca="false">IF(E25="",,C25*E25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA26,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA26,"")</f>
         <v>REGRET</v>
       </c>
       <c r="B26" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A26)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="32" t="n">
         <v>-4</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42">
-        <f t="shared" si="1"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32" t="n">
+        <f aca="false">IF(D26="",,C26*D26)</f>
         <v>400</v>
       </c>
-      <c r="G26" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="32" t="n">
+        <f aca="false">IF(E26="",,C26*E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="str">
-        <f>TEXT('таблица на холод'!AA27,"")</f>
+        <f aca="false">TEXT('таблица на холод'!AA27,"")</f>
         <v>COVRD IN OIL</v>
       </c>
       <c r="B27" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f aca="false">IFERROR(IF(FIND(":",A27)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="32" t="n">
         <v>-100</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42">
-        <f t="shared" ref="F27" si="3">IF(D27="",,C27*D27)</f>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32" t="n">
+        <f aca="false">IF(D27="",,C27*D27)</f>
         <v>-100</v>
       </c>
-      <c r="G27" s="42">
-        <f t="shared" ref="G27" si="4">IF(E27="",,C27*E27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44">
-        <f>SUM(F2:F27)</f>
+      <c r="G27" s="32" t="n">
+        <f aca="false">IF(E27="",,C27*E27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34" t="n">
+        <f aca="false">SUM(F2:F27)</f>
         <v>600</v>
       </c>
-      <c r="G28" s="44">
-        <f>SUM(G2:G27)</f>
+      <c r="G28" s="34" t="n">
+        <f aca="false">SUM(G2:G27)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="40" t="str">
-        <f>vedomost!F1</f>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="37" t="str">
+        <f aca="false">vedomost!F1</f>
         <v>A:GYM</v>
       </c>
-      <c r="C1" s="40" t="str">
-        <f>vedomost!G1</f>
+      <c r="C1" s="37" t="str">
+        <f aca="false">vedomost!G1</f>
         <v>A:SLEEPTIME</v>
       </c>
-      <c r="D1" s="40" t="str">
-        <f>vedomost!H1</f>
+      <c r="D1" s="37" t="str">
+        <f aca="false">vedomost!H1</f>
         <v>Z:STROLL</v>
       </c>
-      <c r="E1" s="40" t="str">
-        <f>vedomost!I1</f>
+      <c r="E1" s="37" t="str">
+        <f aca="false">vedomost!I1</f>
         <v>Z:SLEEPTIME</v>
       </c>
-      <c r="F1" s="40" t="str">
-        <f>vedomost!J1</f>
+      <c r="F1" s="37" t="str">
+        <f aca="false">vedomost!J1</f>
         <v>Z:TEETH</v>
       </c>
-      <c r="G1" s="40" t="str">
-        <f>vedomost!K1</f>
+      <c r="G1" s="37" t="str">
+        <f aca="false">vedomost!K1</f>
         <v>Z:TELE</v>
       </c>
-      <c r="H1" s="40" t="str">
-        <f>vedomost!L1</f>
+      <c r="H1" s="37" t="str">
+        <f aca="false">vedomost!L1</f>
         <v>F:VACUUM</v>
       </c>
-      <c r="I1" s="40" t="str">
-        <f>vedomost!M1</f>
+      <c r="I1" s="37" t="str">
+        <f aca="false">vedomost!M1</f>
         <v>F:KITCHEN</v>
       </c>
-      <c r="J1" s="40" t="str">
-        <f>vedomost!N1</f>
+      <c r="J1" s="37" t="str">
+        <f aca="false">vedomost!N1</f>
         <v>E:HYGIENE</v>
       </c>
-      <c r="K1" s="40" t="str">
-        <f>vedomost!O1</f>
+      <c r="K1" s="37" t="str">
+        <f aca="false">vedomost!O1</f>
         <v>E:PY</v>
       </c>
-      <c r="L1" s="40" t="str">
-        <f>vedomost!P1</f>
+      <c r="L1" s="37" t="str">
+        <f aca="false">vedomost!P1</f>
         <v>E:VIM</v>
       </c>
-      <c r="M1" s="40" t="str">
-        <f>vedomost!Q1</f>
+      <c r="M1" s="37" t="str">
+        <f aca="false">vedomost!Q1</f>
         <v>E:PLAN</v>
       </c>
-      <c r="N1" s="40" t="str">
-        <f>vedomost!R1</f>
+      <c r="N1" s="37" t="str">
+        <f aca="false">vedomost!R1</f>
         <v>E:SLEEPTIME</v>
       </c>
-      <c r="O1" s="40" t="str">
-        <f>vedomost!S1</f>
+      <c r="O1" s="37" t="str">
+        <f aca="false">vedomost!S1</f>
         <v>E:DIET</v>
       </c>
-      <c r="P1" s="40" t="str">
-        <f>vedomost!T1</f>
+      <c r="P1" s="37" t="str">
+        <f aca="false">vedomost!T1</f>
         <v>E:MEALS</v>
       </c>
-      <c r="Q1" s="40" t="str">
-        <f>vedomost!U1</f>
+      <c r="Q1" s="37" t="str">
+        <f aca="false">vedomost!U1</f>
         <v>L:TEETH</v>
       </c>
-      <c r="R1" s="40" t="str">
-        <f>vedomost!V1</f>
+      <c r="R1" s="37" t="str">
+        <f aca="false">vedomost!V1</f>
         <v>L:SLEEPTIME</v>
       </c>
-      <c r="S1" s="40" t="str">
-        <f>vedomost!W1</f>
+      <c r="S1" s="37" t="str">
+        <f aca="false">vedomost!W1</f>
         <v>L:DIET</v>
       </c>
-      <c r="T1" s="40" t="str">
-        <f>vedomost!X1</f>
+      <c r="T1" s="37" t="str">
+        <f aca="false">vedomost!X1</f>
         <v>L:MEALS</v>
       </c>
-      <c r="U1" s="40" t="str">
-        <f>vedomost!Y1</f>
+      <c r="U1" s="37" t="str">
+        <f aca="false">vedomost!Y1</f>
         <v>L:ALARM</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="40">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" s="37" t="n">
+        <v>300</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="37" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="L2" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="M2" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="O3" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="P3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S4" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="O5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="37" t="n">
+        <v>-50</v>
+      </c>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U6" s="37" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U7" s="37" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U8" s="37" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="37" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="40">
-        <v>50</v>
-      </c>
-      <c r="G2" s="40">
-        <v>300</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="40">
-        <v>100</v>
-      </c>
-      <c r="J2" s="40">
-        <v>25</v>
-      </c>
-      <c r="K2" s="40">
-        <v>25</v>
-      </c>
-      <c r="L2" s="40">
-        <v>25</v>
-      </c>
-      <c r="M2" s="40">
-        <v>25</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="40">
-        <v>0</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="40">
-        <v>50</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="S2" s="40">
-        <v>100</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="40">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40">
-        <v>-50</v>
-      </c>
-      <c r="D3" s="40">
-        <v>0</v>
-      </c>
-      <c r="E3" s="40">
-        <v>-50</v>
-      </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="40">
-        <v>0</v>
-      </c>
-      <c r="H3" s="40">
-        <v>0</v>
-      </c>
-      <c r="I3" s="40">
-        <v>0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>0</v>
-      </c>
-      <c r="K3" s="40">
-        <v>0</v>
-      </c>
-      <c r="L3" s="40">
-        <v>0</v>
-      </c>
-      <c r="M3" s="40">
-        <v>0</v>
-      </c>
-      <c r="N3" s="40">
-        <v>-50</v>
-      </c>
-      <c r="O3" s="40">
-        <v>-50</v>
-      </c>
-      <c r="P3" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>0</v>
-      </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40">
-        <v>0</v>
-      </c>
-      <c r="T3" s="40">
-        <v>0</v>
-      </c>
-      <c r="U3" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="40">
-        <v>50</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="40">
-        <v>50</v>
-      </c>
-      <c r="G4" s="40">
-        <v>50</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="40">
-        <v>50</v>
-      </c>
-      <c r="J4" s="40">
-        <v>50</v>
-      </c>
-      <c r="K4" s="40">
-        <v>50</v>
-      </c>
-      <c r="L4" s="40">
-        <v>50</v>
-      </c>
-      <c r="M4" s="40">
-        <v>50</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="40">
-        <v>50</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>50</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" s="40">
-        <v>50</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="40">
-        <v>0</v>
-      </c>
-      <c r="C5" s="40">
-        <v>-50</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0</v>
-      </c>
-      <c r="E5" s="40">
-        <v>-50</v>
-      </c>
-      <c r="F5" s="40">
-        <v>-50</v>
-      </c>
-      <c r="G5" s="40">
-        <v>-50</v>
-      </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40">
-        <v>0</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="40">
-        <v>0</v>
-      </c>
-      <c r="M5" s="40">
-        <v>0</v>
-      </c>
-      <c r="N5" s="40">
-        <v>-50</v>
-      </c>
-      <c r="O5" s="40">
-        <v>0</v>
-      </c>
-      <c r="P5" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>-50</v>
-      </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40">
-        <v>0</v>
-      </c>
-      <c r="T5" s="40">
-        <v>0</v>
-      </c>
-      <c r="U5" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="40">
+      <c r="B10" s="37" t="n">
         <v>0.75</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C10" s="37" t="n">
         <v>0.75</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D10" s="37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="37" t="n">
         <v>0.75</v>
       </c>
-      <c r="E6" s="40">
+      <c r="F10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37" t="n">
         <v>0.75</v>
       </c>
-      <c r="F6" s="40">
+      <c r="H10" s="37" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="40">
+      <c r="I10" s="37" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="I6" s="40">
+      <c r="J10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="37" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="J6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="K6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="L6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="M6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="40">
+      <c r="U11" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="R6" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="S6" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="U6" s="40">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="C7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="D7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="E7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="F7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="G7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="H7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="I7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="J7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="K7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="L7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="M7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="N7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="O7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="P7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="Q7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="R7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="S7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="T7" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="U7" s="40">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="C8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="M8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="N8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="O8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="P8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="Q8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="R8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="S8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="T8" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="U8" s="40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="40">
-        <v>2</v>
-      </c>
-      <c r="E9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="40">
-        <v>1</v>
-      </c>
-      <c r="G9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="R9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="40">
-        <v>1</v>
-      </c>
-      <c r="U9" s="40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="40">
-        <v>1</v>
-      </c>
-      <c r="G10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="I10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="L10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="M10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="N10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="O10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="P10" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="R10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="S10" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="T10" s="40">
-        <v>1</v>
-      </c>
-      <c r="U10" s="40">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="40">
-        <v>1</v>
-      </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40">
-        <v>1</v>
-      </c>
-      <c r="E11" s="40">
-        <v>1</v>
-      </c>
-      <c r="F11" s="40">
-        <v>1</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="40">
-        <v>1</v>
-      </c>
-      <c r="I11" s="40">
-        <v>1</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>1</v>
-      </c>
-      <c r="R11" s="40">
-        <v>1</v>
-      </c>
-      <c r="S11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="T11" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="U11" s="40">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="31" customWidth="1"/>
-    <col min="11" max="13" width="10.140625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="6.140625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="31" customWidth="1"/>
-    <col min="19" max="20" width="7.7109375" style="31" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" style="31" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="31" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="31" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="31" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="31" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="31" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="31" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="31" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="31" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="31" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="31" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="31" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(B1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(B1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(B1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(B1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>WEAK</v>
       </c>
       <c r="D1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(C1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>DUTY</v>
       </c>
       <c r="E1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(D1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>A:GYM</v>
       </c>
       <c r="F1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(E1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>A:SLEEPTIME</v>
       </c>
       <c r="G1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(F1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:STROLL</v>
       </c>
       <c r="H1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(G1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:SLEEPTIME</v>
       </c>
       <c r="I1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(H1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:TEETH</v>
       </c>
       <c r="J1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(I1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>Z:TELE</v>
       </c>
       <c r="K1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(J1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>F:VACUUM</v>
       </c>
       <c r="L1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(K1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>F:KITCHEN</v>
       </c>
       <c r="M1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(L1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:HYGIENE</v>
       </c>
       <c r="N1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(M1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:PY</v>
       </c>
       <c r="O1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(N1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:VIM</v>
       </c>
       <c r="P1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(O1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:PLAN</v>
       </c>
       <c r="Q1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(P1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:SLEEPTIME</v>
       </c>
       <c r="R1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Q1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:DIET</v>
       </c>
       <c r="S1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(R1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>E:MEALS</v>
       </c>
       <c r="T1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(S1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:TEETH</v>
       </c>
       <c r="U1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(T1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:SLEEPTIME</v>
       </c>
       <c r="V1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(U1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:DIET</v>
       </c>
       <c r="W1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(V1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:MEALS</v>
       </c>
       <c r="X1" s="31" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(W1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v>L:ALARM</v>
       </c>
-      <c r="Y1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="Y1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(X1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="Z1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="Z1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Y1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AA1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AA1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(Z1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AB1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AB1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AA1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
-      <c r="AC1" t="str">
-        <f>IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
+      <c r="AC1" s="0" t="str">
+        <f aca="false">IFERROR(IF(INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)=0,"",INDEX('таблица на холод'!$Y$1:$Y$25,MATCH(AB1,'таблица на холод'!$Y$1:$Y$25,0)+1)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="31" t="n">
         <v>24</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="31">
+        <v>177</v>
+      </c>
+      <c r="G2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="31">
+        <v>96</v>
+      </c>
+      <c r="K2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="31">
+        <v>96</v>
+      </c>
+      <c r="S2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="W2" s="31">
+        <v>96</v>
+      </c>
+      <c r="W2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="31">
+      <c r="X2" s="31" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="31">
+        <v>109</v>
+      </c>
+      <c r="C3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="31" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="31">
+        <v>178</v>
+      </c>
+      <c r="G3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="31">
+        <v>178</v>
+      </c>
+      <c r="K3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="S3" s="31">
+        <v>178</v>
+      </c>
+      <c r="S3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="31">
+        <v>178</v>
+      </c>
+      <c r="W3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="31" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="31">
+        <v>113</v>
+      </c>
+      <c r="K4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="31">
+        <v>113</v>
+      </c>
+      <c r="S4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="W4" s="31">
+        <v>113</v>
+      </c>
+      <c r="W4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="31" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="31">
+        <v>95</v>
+      </c>
+      <c r="K5" s="31" t="n">
         <v>4</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="31">
+        <v>95</v>
+      </c>
+      <c r="S5" s="31" t="n">
         <v>4</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5" s="31">
+        <v>95</v>
+      </c>
+      <c r="W5" s="31" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="31">
+        <v>101</v>
+      </c>
+      <c r="K6" s="31" t="n">
         <v>5</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F8" s="41"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F9" s="41"/>
-      <c r="H9" s="41"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F10" s="41"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F11" s="41"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F12" s="41"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F13" s="41"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F15" s="41"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F16" s="41"/>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="41"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="41"/>
-      <c r="H18" s="41"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="44"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="44"/>
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="44"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="44"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="44"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="44"/>
+      <c r="H18" s="44"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/months/dec22test/dec22.xlsx
+++ b/months/dec22test/dec22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="таблица на холод" sheetId="1" state="visible" r:id="rId2"/>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">SUM</t>
   </si>
   <si>
-    <t xml:space="preserve">duty_24</t>
+    <t xml:space="preserve">dutyTrue</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;.22: 3*, &lt;.23: 2*, &gt;=.23: 0</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">20*</t>
   </si>
   <si>
-    <t xml:space="preserve">duty_False</t>
+    <t xml:space="preserve">dutyFalse</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">duty_8</t>
+    <t xml:space="preserve">duty8</t>
   </si>
   <si>
     <t xml:space="preserve">WEAK1</t>
@@ -759,7 +759,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -885,10 +885,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1106,12 +1102,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="18"/>
@@ -2772,11 +2768,11 @@
   </sheetPr>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="4.43"/>
@@ -2794,7 +2790,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.28"/>
   </cols>
@@ -4918,13 +4914,12 @@
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="31" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="32" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,7 +4930,7 @@
       <c r="B1" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="0" t="s">
         <v>149</v>
       </c>
       <c r="D1" s="31" t="s">
@@ -4944,10 +4939,10 @@
       <c r="E1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="0" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4960,18 +4955,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A2)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="32" t="n">
+      <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="n">
+      <c r="E2" s="0"/>
+      <c r="F2" s="0" t="n">
         <f aca="false">IF(D2="",,C2*D2)</f>
         <v>100</v>
       </c>
-      <c r="G2" s="32" t="n">
+      <c r="G2" s="0" t="n">
         <f aca="false">IF(E2="",,C2*E2)</f>
         <v>0</v>
       </c>
@@ -4985,20 +4980,20 @@
         <f aca="false">IFERROR(IF(FIND(":",A3)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="F3" s="0" t="n">
         <f aca="false">IF(D3="",,C3*D3)</f>
         <v>50</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="0" t="n">
         <f aca="false">IF(E3="",,C3*E3)</f>
         <v>50</v>
       </c>
@@ -5012,20 +5007,20 @@
         <f aca="false">IFERROR(IF(FIND(":",A4)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" s="32" t="n">
+      <c r="F4" s="0" t="n">
         <f aca="false">IF(D4="",,C4*D4)</f>
         <v>50</v>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="0" t="n">
         <f aca="false">IF(E4="",,C4*E4)</f>
         <v>50</v>
       </c>
@@ -5039,18 +5034,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A5)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C5" s="32" t="n">
+      <c r="C5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="n">
+      <c r="E5" s="0"/>
+      <c r="F5" s="0" t="n">
         <f aca="false">IF(D5="",,C5*D5)</f>
         <v>100</v>
       </c>
-      <c r="G5" s="32" t="n">
+      <c r="G5" s="0" t="n">
         <f aca="false">IF(E5="",,C5*E5)</f>
         <v>0</v>
       </c>
@@ -5064,18 +5059,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A6)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C6" s="32" t="n">
+      <c r="C6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="n">
+      <c r="D6" s="0"/>
+      <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F6" s="0" t="n">
         <f aca="false">IF(D6="",,C6*D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="32" t="n">
+      <c r="G6" s="0" t="n">
         <f aca="false">IF(E6="",,C6*E6)</f>
         <v>100</v>
       </c>
@@ -5089,18 +5084,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A7)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C7" s="32" t="n">
+      <c r="C7" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="n">
+      <c r="E7" s="0"/>
+      <c r="F7" s="0" t="n">
         <f aca="false">IF(D7="",,C7*D7)</f>
         <v>100</v>
       </c>
-      <c r="G7" s="32" t="n">
+      <c r="G7" s="0" t="n">
         <f aca="false">IF(E7="",,C7*E7)</f>
         <v>0</v>
       </c>
@@ -5114,18 +5109,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A8)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C8" s="32" t="n">
+      <c r="C8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="n">
+      <c r="E8" s="0"/>
+      <c r="F8" s="0" t="n">
         <f aca="false">IF(D8="",,C8*D8)</f>
         <v>100</v>
       </c>
-      <c r="G8" s="32" t="n">
+      <c r="G8" s="0" t="n">
         <f aca="false">IF(E8="",,C8*E8)</f>
         <v>0</v>
       </c>
@@ -5139,18 +5134,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A9)&gt;0,"long_box"),"fine/enc")</f>
         <v>long_box</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="n">
+      <c r="E9" s="0"/>
+      <c r="F9" s="0" t="n">
         <f aca="false">IF(D9="",,C9*D9)</f>
         <v>100</v>
       </c>
-      <c r="G9" s="32" t="n">
+      <c r="G9" s="0" t="n">
         <f aca="false">IF(E9="",,C9*E9)</f>
         <v>0</v>
       </c>
@@ -5164,13 +5159,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A10)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32" t="n">
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0" t="n">
         <f aca="false">IF(D10="",,C10*D10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="32" t="n">
+      <c r="G10" s="0" t="n">
         <f aca="false">IF(E10="",,C10*E10)</f>
         <v>0</v>
       </c>
@@ -5184,13 +5179,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A11)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="n">
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0" t="n">
         <f aca="false">IF(D11="",,C11*D11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="32" t="n">
+      <c r="G11" s="0" t="n">
         <f aca="false">IF(E11="",,C11*E11)</f>
         <v>0</v>
       </c>
@@ -5204,13 +5199,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A12)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="n">
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0" t="n">
         <f aca="false">IF(D12="",,C12*D12)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="32" t="n">
+      <c r="G12" s="0" t="n">
         <f aca="false">IF(E12="",,C12*E12)</f>
         <v>0</v>
       </c>
@@ -5224,13 +5219,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A13)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="n">
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0" t="n">
         <f aca="false">IF(D13="",,C13*D13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="0" t="n">
         <f aca="false">IF(E13="",,C13*E13)</f>
         <v>0</v>
       </c>
@@ -5244,13 +5239,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A14)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32" t="n">
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0" t="n">
         <f aca="false">IF(D14="",,C14*D14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="0" t="n">
         <f aca="false">IF(E14="",,C14*E14)</f>
         <v>0</v>
       </c>
@@ -5264,13 +5259,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A15)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="n">
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="n">
         <f aca="false">IF(D15="",,C15*D15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="0" t="n">
         <f aca="false">IF(E15="",,C15*E15)</f>
         <v>0</v>
       </c>
@@ -5284,20 +5279,20 @@
         <f aca="false">IFERROR(IF(FIND(":",A16)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C16" s="32" t="n">
+      <c r="C16" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="32" t="n">
+      <c r="F16" s="0" t="n">
         <f aca="false">IF(D16="",,C16*D16)</f>
         <v>450</v>
       </c>
-      <c r="G16" s="32" t="n">
+      <c r="G16" s="0" t="n">
         <f aca="false">IF(E16="",,C16*E16)</f>
         <v>200</v>
       </c>
@@ -5311,13 +5306,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A17)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="n">
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="n">
         <f aca="false">IF(D17="",,C17*D17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="32" t="n">
+      <c r="G17" s="0" t="n">
         <f aca="false">IF(E17="",,C17*E17)</f>
         <v>0</v>
       </c>
@@ -5331,13 +5326,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A18)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="n">
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="n">
         <f aca="false">IF(D18="",,C18*D18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="0" t="n">
         <f aca="false">IF(E18="",,C18*E18)</f>
         <v>0</v>
       </c>
@@ -5351,13 +5346,13 @@
         <f aca="false">IFERROR(IF(FIND(":",A19)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="n">
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0" t="n">
         <f aca="false">IF(D19="",,C19*D19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="32" t="n">
+      <c r="G19" s="0" t="n">
         <f aca="false">IF(E19="",,C19*E19)</f>
         <v>0</v>
       </c>
@@ -5371,16 +5366,16 @@
         <f aca="false">IFERROR(IF(FIND(":",A20)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C20" s="32" t="n">
+      <c r="C20" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="n">
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0" t="n">
         <f aca="false">IF(D20="",,C20*D20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="32" t="n">
+      <c r="G20" s="0" t="n">
         <f aca="false">IF(E20="",,C20*E20)</f>
         <v>0</v>
       </c>
@@ -5394,16 +5389,16 @@
         <f aca="false">IFERROR(IF(FIND(":",A21)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C21" s="32" t="n">
+      <c r="C21" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="n">
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0" t="n">
         <f aca="false">IF(D21="",,C21*D21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="32" t="n">
+      <c r="G21" s="0" t="n">
         <f aca="false">IF(E21="",,C21*E21)</f>
         <v>0</v>
       </c>
@@ -5417,20 +5412,20 @@
         <f aca="false">IFERROR(IF(FIND(":",A22)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C22" s="32" t="n">
+      <c r="C22" s="0" t="n">
         <v>-50</v>
       </c>
-      <c r="D22" s="32" t="n">
+      <c r="D22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E22" s="32" t="n">
+      <c r="E22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="32" t="n">
+      <c r="F22" s="0" t="n">
         <f aca="false">IF(D22="",,C22*D22)</f>
         <v>-350</v>
       </c>
-      <c r="G22" s="32" t="n">
+      <c r="G22" s="0" t="n">
         <f aca="false">IF(E22="",,C22*E22)</f>
         <v>-200</v>
       </c>
@@ -5444,20 +5439,20 @@
         <f aca="false">IFERROR(IF(FIND(":",A23)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C23" s="32" t="n">
+      <c r="C23" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D23" s="32" t="n">
+      <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="32" t="n">
+      <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="32" t="n">
+      <c r="F23" s="0" t="n">
         <f aca="false">IF(D23="",,C23*D23)</f>
         <v>-200</v>
       </c>
-      <c r="G23" s="32" t="n">
+      <c r="G23" s="0" t="n">
         <f aca="false">IF(E23="",,C23*E23)</f>
         <v>-100</v>
       </c>
@@ -5471,18 +5466,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A24)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C24" s="32" t="n">
+      <c r="C24" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D24" s="32" t="n">
+      <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32" t="n">
+      <c r="E24" s="0"/>
+      <c r="F24" s="0" t="n">
         <f aca="false">IF(D24="",,C24*D24)</f>
         <v>-200</v>
       </c>
-      <c r="G24" s="32" t="n">
+      <c r="G24" s="0" t="n">
         <f aca="false">IF(E24="",,C24*E24)</f>
         <v>0</v>
       </c>
@@ -5496,16 +5491,16 @@
         <f aca="false">IFERROR(IF(FIND(":",A25)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C25" s="32" t="n">
+      <c r="C25" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32" t="n">
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0" t="n">
         <f aca="false">IF(D25="",,C25*D25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="32" t="n">
+      <c r="G25" s="0" t="n">
         <f aca="false">IF(E25="",,C25*E25)</f>
         <v>0</v>
       </c>
@@ -5519,18 +5514,18 @@
         <f aca="false">IFERROR(IF(FIND(":",A26)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C26" s="32" t="n">
+      <c r="C26" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D26" s="32" t="n">
+      <c r="D26" s="0" t="n">
         <v>-4</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32" t="n">
+      <c r="E26" s="0"/>
+      <c r="F26" s="0" t="n">
         <f aca="false">IF(D26="",,C26*D26)</f>
         <v>400</v>
       </c>
-      <c r="G26" s="32" t="n">
+      <c r="G26" s="0" t="n">
         <f aca="false">IF(E26="",,C26*E26)</f>
         <v>0</v>
       </c>
@@ -5544,35 +5539,35 @@
         <f aca="false">IFERROR(IF(FIND(":",A27)&gt;0,"long_box"),"fine/enc")</f>
         <v>fine/enc</v>
       </c>
-      <c r="C27" s="32" t="n">
+      <c r="C27" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="D27" s="32" t="n">
+      <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32" t="n">
+      <c r="E27" s="0"/>
+      <c r="F27" s="0" t="n">
         <f aca="false">IF(D27="",,C27*D27)</f>
         <v>-100</v>
       </c>
-      <c r="G27" s="32" t="n">
+      <c r="G27" s="0" t="n">
         <f aca="false">IF(E27="",,C27*E27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34" t="n">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33" t="n">
         <f aca="false">SUM(F2:F27)</f>
         <v>600</v>
       </c>
-      <c r="G28" s="34" t="n">
+      <c r="G28" s="33" t="n">
         <f aca="false">SUM(G2:G27)</f>
         <v>100</v>
       </c>
@@ -5595,758 +5590,758 @@
   </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="36" t="str">
         <f aca="false">vedomost!F1</f>
         <v>A:GYM</v>
       </c>
-      <c r="C1" s="37" t="str">
+      <c r="C1" s="36" t="str">
         <f aca="false">vedomost!G1</f>
         <v>A:SLEEPTIME</v>
       </c>
-      <c r="D1" s="37" t="str">
+      <c r="D1" s="36" t="str">
         <f aca="false">vedomost!H1</f>
         <v>Z:STROLL</v>
       </c>
-      <c r="E1" s="37" t="str">
+      <c r="E1" s="36" t="str">
         <f aca="false">vedomost!I1</f>
         <v>Z:SLEEPTIME</v>
       </c>
-      <c r="F1" s="37" t="str">
+      <c r="F1" s="36" t="str">
         <f aca="false">vedomost!J1</f>
         <v>Z:TEETH</v>
       </c>
-      <c r="G1" s="37" t="str">
+      <c r="G1" s="36" t="str">
         <f aca="false">vedomost!K1</f>
         <v>Z:TELE</v>
       </c>
-      <c r="H1" s="37" t="str">
+      <c r="H1" s="36" t="str">
         <f aca="false">vedomost!L1</f>
         <v>F:VACUUM</v>
       </c>
-      <c r="I1" s="37" t="str">
+      <c r="I1" s="36" t="str">
         <f aca="false">vedomost!M1</f>
         <v>F:KITCHEN</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="36" t="str">
         <f aca="false">vedomost!N1</f>
         <v>E:HYGIENE</v>
       </c>
-      <c r="K1" s="37" t="str">
+      <c r="K1" s="36" t="str">
         <f aca="false">vedomost!O1</f>
         <v>E:PY</v>
       </c>
-      <c r="L1" s="37" t="str">
+      <c r="L1" s="36" t="str">
         <f aca="false">vedomost!P1</f>
         <v>E:VIM</v>
       </c>
-      <c r="M1" s="37" t="str">
+      <c r="M1" s="36" t="str">
         <f aca="false">vedomost!Q1</f>
         <v>E:PLAN</v>
       </c>
-      <c r="N1" s="37" t="str">
+      <c r="N1" s="36" t="str">
         <f aca="false">vedomost!R1</f>
         <v>E:SLEEPTIME</v>
       </c>
-      <c r="O1" s="37" t="str">
+      <c r="O1" s="36" t="str">
         <f aca="false">vedomost!S1</f>
         <v>E:DIET</v>
       </c>
-      <c r="P1" s="37" t="str">
+      <c r="P1" s="36" t="str">
         <f aca="false">vedomost!T1</f>
         <v>E:MEALS</v>
       </c>
-      <c r="Q1" s="37" t="str">
+      <c r="Q1" s="36" t="str">
         <f aca="false">vedomost!U1</f>
         <v>L:TEETH</v>
       </c>
-      <c r="R1" s="37" t="str">
+      <c r="R1" s="36" t="str">
         <f aca="false">vedomost!V1</f>
         <v>L:SLEEPTIME</v>
       </c>
-      <c r="S1" s="37" t="str">
+      <c r="S1" s="36" t="str">
         <f aca="false">vedomost!W1</f>
         <v>L:DIET</v>
       </c>
-      <c r="T1" s="37" t="str">
+      <c r="T1" s="36" t="str">
         <f aca="false">vedomost!X1</f>
         <v>L:MEALS</v>
       </c>
-      <c r="U1" s="37" t="str">
+      <c r="U1" s="36" t="str">
         <f aca="false">vedomost!Y1</f>
         <v>L:ALARM</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="37" t="n">
+      <c r="B2" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="37" t="n">
+      <c r="F2" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="G2" s="37" t="n">
+      <c r="G2" s="36" t="n">
         <v>300</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="J2" s="37" t="n">
+      <c r="J2" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="K2" s="37" t="n">
+      <c r="K2" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="L2" s="37" t="n">
+      <c r="L2" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="M2" s="37" t="n">
+      <c r="M2" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="37" t="s">
+      <c r="O2" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="37" t="n">
+      <c r="Q2" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="S2" s="37" t="n">
+      <c r="S2" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37" t="n">
+      <c r="B3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="D3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37" t="n">
+      <c r="D3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="F3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="37" t="n">
+      <c r="F3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="O3" s="37" t="n">
+      <c r="O3" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="P3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="37" t="n">
+      <c r="P3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="37" t="n">
+      <c r="B4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="37" t="n">
+      <c r="F4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="G4" s="37" t="n">
+      <c r="G4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="J4" s="37" t="n">
+      <c r="J4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="K4" s="37" t="n">
+      <c r="K4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="L4" s="37" t="n">
+      <c r="L4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="M4" s="37" t="n">
+      <c r="M4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="37" t="n">
+      <c r="O4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="Q4" s="37" t="n">
+      <c r="Q4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="S4" s="37" t="n">
+      <c r="S4" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T4" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="36" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="n">
+      <c r="B5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="D5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37" t="n">
+      <c r="D5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="F5" s="37" t="n">
+      <c r="F5" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G5" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="H5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="37" t="n">
+      <c r="H5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="O5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="37" t="n">
+      <c r="O5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="36" t="n">
         <v>-50</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="37" t="n">
+      <c r="R5" s="36"/>
+      <c r="S5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="37" t="n">
+      <c r="B6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="C6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="E6" s="37" t="n">
+      <c r="E6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="F6" s="37" t="n">
+      <c r="F6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="37" t="n">
+      <c r="G6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="37" t="n">
+      <c r="H6" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="I6" s="37" t="n">
+      <c r="I6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="J6" s="37" t="n">
+      <c r="J6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="K6" s="37" t="n">
+      <c r="K6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="L6" s="37" t="n">
+      <c r="L6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="M6" s="37" t="n">
+      <c r="M6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="N6" s="37" t="n">
+      <c r="N6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6" s="37" t="n">
+      <c r="O6" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="P6" s="37" t="n">
+      <c r="P6" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="37" t="n">
+      <c r="Q6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="R6" s="37" t="n">
+      <c r="R6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="S6" s="37" t="n">
+      <c r="S6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="T6" s="37" t="n">
+      <c r="T6" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="U6" s="37" t="n">
+      <c r="U6" s="36" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="37" t="n">
+      <c r="B7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="C7" s="37" t="n">
+      <c r="C7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="37" t="n">
+      <c r="D7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="E7" s="37" t="n">
+      <c r="E7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="F7" s="37" t="n">
+      <c r="F7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="G7" s="37" t="n">
+      <c r="G7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="H7" s="37" t="n">
+      <c r="H7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="I7" s="37" t="n">
+      <c r="I7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="J7" s="37" t="n">
+      <c r="J7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="K7" s="37" t="n">
+      <c r="K7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="L7" s="37" t="n">
+      <c r="L7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="M7" s="37" t="n">
+      <c r="M7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="N7" s="37" t="n">
+      <c r="N7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="O7" s="37" t="n">
+      <c r="O7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="P7" s="37" t="n">
+      <c r="P7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q7" s="37" t="n">
+      <c r="Q7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="R7" s="37" t="n">
+      <c r="R7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="S7" s="37" t="n">
+      <c r="S7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="T7" s="37" t="n">
+      <c r="T7" s="36" t="n">
         <v>1.25</v>
       </c>
-      <c r="U7" s="37" t="n">
+      <c r="U7" s="36" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="37" t="n">
+      <c r="B8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" s="37" t="n">
+      <c r="C8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="E8" s="37" t="n">
+      <c r="E8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="F8" s="37" t="n">
+      <c r="F8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="37" t="n">
+      <c r="G8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="37" t="n">
+      <c r="H8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="37" t="n">
+      <c r="I8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="37" t="n">
+      <c r="J8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="37" t="n">
+      <c r="K8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="37" t="n">
+      <c r="L8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="M8" s="37" t="n">
+      <c r="M8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="37" t="n">
+      <c r="N8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="37" t="n">
+      <c r="O8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="37" t="n">
+      <c r="P8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="37" t="n">
+      <c r="Q8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="37" t="n">
+      <c r="R8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="37" t="n">
+      <c r="S8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="T8" s="37" t="n">
+      <c r="T8" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="U8" s="37" t="n">
+      <c r="U8" s="36" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="37" t="n">
+      <c r="B9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="C9" s="37" t="n">
+      <c r="C9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="37" t="n">
+      <c r="D9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="37" t="n">
+      <c r="E9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="37" t="n">
+      <c r="F9" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="37" t="n">
+      <c r="G9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="H9" s="37" t="n">
+      <c r="H9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="37" t="n">
+      <c r="I9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="J9" s="37" t="n">
+      <c r="J9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="K9" s="37" t="n">
+      <c r="K9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="L9" s="37" t="n">
+      <c r="L9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="M9" s="37" t="n">
+      <c r="M9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="N9" s="37" t="n">
+      <c r="N9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="O9" s="37" t="n">
+      <c r="O9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="P9" s="37" t="n">
+      <c r="P9" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="37" t="n">
+      <c r="Q9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="R9" s="37" t="n">
+      <c r="R9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="S9" s="37" t="n">
+      <c r="S9" s="36" t="n">
         <v>0.5</v>
       </c>
-      <c r="T9" s="37" t="n">
+      <c r="T9" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="37" t="n">
+      <c r="U9" s="36" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="37" t="n">
+      <c r="B10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="C10" s="37" t="n">
+      <c r="C10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="D10" s="37" t="n">
+      <c r="D10" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="E10" s="37" t="n">
+      <c r="E10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="F10" s="37" t="n">
+      <c r="F10" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="37" t="n">
+      <c r="G10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="H10" s="37" t="n">
+      <c r="H10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="I10" s="37" t="n">
+      <c r="I10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="J10" s="37" t="n">
+      <c r="J10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="K10" s="37" t="n">
+      <c r="K10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="L10" s="37" t="n">
+      <c r="L10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="M10" s="37" t="n">
+      <c r="M10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="N10" s="37" t="n">
+      <c r="N10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="O10" s="37" t="n">
+      <c r="O10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="P10" s="37" t="n">
+      <c r="P10" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="37" t="n">
+      <c r="Q10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="R10" s="37" t="n">
+      <c r="R10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="S10" s="37" t="n">
+      <c r="S10" s="36" t="n">
         <v>0.75</v>
       </c>
-      <c r="T10" s="37" t="n">
+      <c r="T10" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="U10" s="37" t="n">
+      <c r="U10" s="36" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="37" t="n">
+      <c r="B11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="37" t="n">
+      <c r="C11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="37" t="n">
+      <c r="D11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="37" t="n">
+      <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="37" t="n">
+      <c r="F11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="37" t="n">
+      <c r="H11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="37" t="n">
+      <c r="P11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="37" t="n">
+      <c r="Q11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="37" t="n">
+      <c r="R11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="37" t="n">
+      <c r="T11" s="36" t="n">
         <v>1.5</v>
       </c>
-      <c r="U11" s="37" t="n">
+      <c r="U11" s="36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6372,7 +6367,7 @@
       <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="5.43"/>
@@ -6389,7 +6384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="31" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="31" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="31" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="31" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="31" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="31" width="9.14"/>
@@ -6722,48 +6717,48 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="F8" s="43"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="F12" s="43"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="F13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="F14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="F15" s="43"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="F16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="F17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
